--- a/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
+++ b/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
@@ -17,9 +17,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="100">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="115">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段04390000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段04400000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段04440000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05090000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05100000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05150000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05230000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區桃源段五小段05270000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段7小段06140000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段三小段06420000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段三小段06530000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段三小段06540000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03680000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03690000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03770000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03780000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區豐年段四小段03790000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段二小段03920000地號</t>
+  </si>
+  <si>
+    <t>新北市三重區三重埔段同安厝小段00850000地號</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>4320分之94</t>
+  </si>
+  <si>
+    <t>30000分之180</t>
+  </si>
+  <si>
+    <t>15分之1</t>
+  </si>
+  <si>
+    <t>216分之11</t>
+  </si>
+  <si>
+    <t>10000分之354</t>
+  </si>
+  <si>
+    <t>100000分之263</t>
+  </si>
+  <si>
+    <t>高志鵬</t>
+  </si>
+  <si>
+    <t>82年06月16日</t>
+  </si>
+  <si>
+    <t>82年02月25日</t>
+  </si>
+  <si>
+    <t>92年07月21日</t>
+  </si>
+  <si>
+    <t>92年07月21曰</t>
+  </si>
+  <si>
+    <t>92年07月</t>
+  </si>
+  <si>
+    <t>92年07月21H</t>
+  </si>
+  <si>
+    <t>94年02月17日</t>
+  </si>
+  <si>
+    <t>100年12月08日</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>558507(超過五年）</t>
+  </si>
+  <si>
+    <t>2180694(超過五年）</t>
+  </si>
+  <si>
+    <t>2468%(超過五年）</t>
+  </si>
+  <si>
+    <t>178346(超過五年）</t>
+  </si>
+  <si>
+    <t>170795(超過五年）</t>
+  </si>
+  <si>
+    <t>1053768(超過五年）</t>
+  </si>
+  <si>
+    <t>134334(超過五年）</t>
+  </si>
+  <si>
+    <t>1983822(超過五年）</t>
+  </si>
+  <si>
+    <t>36480(超過五年）</t>
+  </si>
+  <si>
+    <t>1676940(超過五年）</t>
+  </si>
+  <si>
+    <t>654360(超過五年）</t>
+  </si>
+  <si>
+    <t>1391940(超過五年）</t>
+  </si>
+  <si>
+    <t>282150(超過五年）</t>
+  </si>
+  <si>
+    <t>225720(超過五年）</t>
+  </si>
+  <si>
+    <t>906300(超過</t>
+  </si>
+  <si>
+    <t>9480251(超過五年）</t>
+  </si>
+  <si>
+    <t>417240(超過五年）</t>
+  </si>
+  <si>
+    <t>738467(超過五年）</t>
+  </si>
+  <si>
+    <t>22360000(超過五年）</t>
+  </si>
+  <si>
+    <t>35000000(土地加建物）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp2a741</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -40,199 +274,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市北投區桃源段五小段 0439-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0440-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0444-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0509-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0510-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0515-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0523-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 0527-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段7小段 0614-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段三小段 0642-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段三小段 0653-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段三小段 0654-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0368-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0369-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0377-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0378-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區豐年段四小段 0379-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段 0392-0000 地號</t>
-  </si>
-  <si>
-    <t>★新北市三重區三重埔段同安 厝小段0085-0000地號</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>4320分之 94</t>
-  </si>
-  <si>
-    <t>30000分之 180</t>
-  </si>
-  <si>
-    <t>15分之1</t>
-  </si>
-  <si>
-    <t>216分之11</t>
-  </si>
-  <si>
-    <t>10000分之 354</t>
-  </si>
-  <si>
-    <t>100000 分 之263</t>
-  </si>
-  <si>
-    <t>高志鵬</t>
-  </si>
-  <si>
-    <t>82年06月 16日</t>
-  </si>
-  <si>
-    <t>82年02月 25日</t>
-  </si>
-  <si>
-    <t>92年07月 21日</t>
-  </si>
-  <si>
-    <t>92年07月 21曰</t>
-  </si>
-  <si>
-    <t>92年07月</t>
-  </si>
-  <si>
-    <t>92年07月 21 H</t>
-  </si>
-  <si>
-    <t>94年02月 17日</t>
-  </si>
-  <si>
-    <t>100 年 12 月08日</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>558’507(超過 五年）</t>
-  </si>
-  <si>
-    <t>2,180，694(超 過五年）</t>
-  </si>
-  <si>
-    <t>246，8%(超過 五年）</t>
-  </si>
-  <si>
-    <t>178，346(超過 五年）</t>
-  </si>
-  <si>
-    <t>170,795(超過 五年）</t>
-  </si>
-  <si>
-    <t>1，053,768(超 過五年）</t>
-  </si>
-  <si>
-    <t>134,334(超過 五年）</t>
-  </si>
-  <si>
-    <t>1，983，822(超 過五年）</t>
-  </si>
-  <si>
-    <t>36,480 (超過五 年）</t>
-  </si>
-  <si>
-    <t>1,676,940(超 過五年）</t>
-  </si>
-  <si>
-    <t>654,360(超過 五年）</t>
-  </si>
-  <si>
-    <t>1,391，940(超 過五年）</t>
-  </si>
-  <si>
-    <t>282，150(超過 五年）</t>
-  </si>
-  <si>
-    <t>225,720(超過 五年）</t>
-  </si>
-  <si>
-    <t>906,300(超過</t>
-  </si>
-  <si>
-    <t>9,480，251(超 過五年）</t>
-  </si>
-  <si>
-    <t>417,240(超過 五年）</t>
-  </si>
-  <si>
-    <t>738,467(超過 五年）</t>
-  </si>
-  <si>
-    <t>22，360，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>35，000,000(土 地加建物）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市北投區桃源段五小段 50184-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段 02095-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段 02073-000 建號</t>
-  </si>
-  <si>
-    <t>★新北市三重區三重埔段同安 厝小段03215-000建號</t>
+    <t>臺北市北投區桃源段五小段50184000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段二小段02095000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段二小段02073000建號</t>
+  </si>
+  <si>
+    <t>新北市三重區三重埔段同安厝小段03215000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -241,25 +292,19 @@
     <t>71分之1</t>
   </si>
   <si>
-    <t>73年02月 07日</t>
-  </si>
-  <si>
-    <t>100 年 12 月08曰</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
+    <t>73年02月07日</t>
+  </si>
+  <si>
+    <t>100年12月08曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
   </si>
   <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>22,360，000(超 過五年）</t>
-  </si>
-  <si>
-    <t>22,360,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>35，000,000(上 地加建物）</t>
+    <t>35000000(上地加建物）</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -310,10 +355,10 @@
     <t>貸款</t>
   </si>
   <si>
-    <t>合作金庫銀行 新北市中和區立德街</t>
-  </si>
-  <si>
-    <t>100年12月 12日</t>
+    <t>合作金庫銀行新北市中和區立德街</t>
+  </si>
+  <si>
+    <t>100年12月12日</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -675,13 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,525 +748,966 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>269.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2">
+        <v>923</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>403.21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2">
+        <v>923</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>45.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2">
+        <v>923</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>85.95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2">
+        <v>923</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>31.58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2">
+        <v>923</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>507.84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2">
+        <v>923</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>112.59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2">
+        <v>923</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>4473.63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2">
+        <v>923</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2">
+        <v>923</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1471</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="2">
+        <v>923</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>574</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2">
+        <v>923</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1221</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="2">
+        <v>923</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>324</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="2">
+        <v>923</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="2">
+        <v>923</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>795</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="2">
+        <v>923</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>8316.01</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="2">
+        <v>923</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>366</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2">
+        <v>923</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>848</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="2">
+        <v>923</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>536</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="2">
+        <v>923</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="2">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>4898</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="2">
+        <v>923</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1239,25 +1725,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1265,25 +1751,25 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2">
         <v>78.25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1291,25 +1777,25 @@
         <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
         <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1317,25 +1803,25 @@
         <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2">
         <v>7.32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1343,25 +1829,25 @@
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2">
         <v>121.25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1379,13 +1865,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1393,13 +1879,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1407,13 +1893,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1421,13 +1907,13 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1435,13 +1921,13 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1459,22 +1945,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1482,22 +1968,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>20829093</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
+++ b/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市北投區桃源段五小段04390000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市北投區桃源段五小段04400000地號</t>
@@ -181,9 +184,6 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>558507(超過五年）</t>
-  </si>
-  <si>
     <t>2180694(超過五年）</t>
   </si>
   <si>
@@ -253,30 +253,21 @@
     <t>tmp2a741</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市北投區桃源段五小段50184000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>73年02月07日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>臺北市中正區臨沂段二小段02095000建號</t>
   </si>
   <si>
@@ -286,45 +277,24 @@
     <t>新北市三重區三重埔段同安厝小段03215000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>71分之1</t>
   </si>
   <si>
-    <t>73年02月07日</t>
-  </si>
-  <si>
     <t>100年12月08曰</t>
   </si>
   <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>35000000(上地加建物）</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>優質理財變額萬能壽險乙型</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
-    <t>優質理財變額萬能壽險乙型</t>
-  </si>
-  <si>
     <t>安泰雙星報喜還本終身壽險</t>
   </si>
   <si>
@@ -332,24 +302,6 @@
   </si>
   <si>
     <t>美年發儲蓄型保單</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>貸款</t>
@@ -720,13 +672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,31 +721,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>269.16</v>
+        <v>403.21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>74</v>
@@ -805,7 +763,7 @@
         <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2">
         <v>923</v>
@@ -814,33 +772,39 @@
         <v>77</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>33.6008333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>403.21</v>
+        <v>45.65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>74</v>
@@ -852,7 +816,7 @@
         <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2">
         <v>923</v>
@@ -861,33 +825,39 @@
         <v>77</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3.80416666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>45.65</v>
+        <v>85.95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>74</v>
@@ -899,7 +869,7 @@
         <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="2">
         <v>923</v>
@@ -908,33 +878,39 @@
         <v>77</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>7.1625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>85.95</v>
+        <v>31.58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>74</v>
@@ -946,7 +922,7 @@
         <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2">
         <v>923</v>
@@ -955,33 +931,39 @@
         <v>77</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.63166666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>31.58</v>
+        <v>507.84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>74</v>
@@ -993,7 +975,7 @@
         <v>76</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2">
         <v>923</v>
@@ -1002,33 +984,39 @@
         <v>77</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>507.84</v>
+        <v>112.59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>74</v>
@@ -1040,7 +1028,7 @@
         <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2">
         <v>923</v>
@@ -1049,24 +1037,30 @@
         <v>77</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0217592592592593</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2.449875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>112.59</v>
+        <v>4473.63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>43</v>
@@ -1075,7 +1069,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>74</v>
@@ -1087,7 +1081,7 @@
         <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2">
         <v>923</v>
@@ -1096,33 +1090,39 @@
         <v>77</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.006</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>26.84178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>4473.63</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>74</v>
@@ -1134,7 +1134,7 @@
         <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="2">
         <v>923</v>
@@ -1143,33 +1143,39 @@
         <v>77</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.13333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>32</v>
+        <v>1471</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>74</v>
@@ -1181,7 +1187,7 @@
         <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" s="2">
         <v>923</v>
@@ -1190,33 +1196,39 @@
         <v>77</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>98.0666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1471</v>
+        <v>574</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>74</v>
@@ -1228,7 +1240,7 @@
         <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" s="2">
         <v>923</v>
@@ -1237,33 +1249,39 @@
         <v>77</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>38.2666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>574</v>
+        <v>1221</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>74</v>
@@ -1275,7 +1293,7 @@
         <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M12" s="2">
         <v>923</v>
@@ -1284,33 +1302,39 @@
         <v>77</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1221</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>74</v>
@@ -1322,7 +1346,7 @@
         <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M13" s="2">
         <v>923</v>
@@ -1331,33 +1355,39 @@
         <v>77</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0509259259259259</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>74</v>
@@ -1369,7 +1399,7 @@
         <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M14" s="2">
         <v>923</v>
@@ -1378,33 +1408,39 @@
         <v>77</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>198</v>
+        <v>795</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>74</v>
@@ -1416,7 +1452,7 @@
         <v>76</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M15" s="2">
         <v>923</v>
@@ -1425,33 +1461,39 @@
         <v>77</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>795</v>
+        <v>8316.01</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>74</v>
@@ -1463,7 +1505,7 @@
         <v>76</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M16" s="2">
         <v>923</v>
@@ -1472,33 +1514,39 @@
         <v>77</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>554.400666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>8316.01</v>
+        <v>366</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>74</v>
@@ -1510,7 +1558,7 @@
         <v>76</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M17" s="2">
         <v>923</v>
@@ -1519,33 +1567,39 @@
         <v>77</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>366</v>
+        <v>848</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>74</v>
@@ -1557,7 +1611,7 @@
         <v>76</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M18" s="2">
         <v>923</v>
@@ -1566,33 +1620,39 @@
         <v>77</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.0509259259259259</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>43.1851851851852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>848</v>
+        <v>536</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>74</v>
@@ -1604,7 +1664,7 @@
         <v>76</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M19" s="2">
         <v>923</v>
@@ -1613,33 +1673,39 @@
         <v>77</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.0354</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>18.9744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>536</v>
+        <v>4898</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>74</v>
@@ -1651,7 +1717,7 @@
         <v>76</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M20" s="2">
         <v>923</v>
@@ -1660,54 +1726,13 @@
         <v>77</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4898</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="2">
-        <v>923</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O21" s="2">
-        <v>35</v>
+      <c r="P20" s="2">
+        <v>0.00263</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>12.88174</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1727,72 +1752,72 @@
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>78.25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
-        <v>78.25</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="2">
-        <v>137</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>72</v>
@@ -1800,54 +1825,28 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2">
+        <v>121.25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="2">
-        <v>7.32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="2">
-        <v>121.25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1865,69 +1864,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1937,53 +1922,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20829093</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>113</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20829093</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
+++ b/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市北投區桃源段五小段04390000地號</t>
+  </si>
+  <si>
     <t>臺北市北投區桃源段五小段04400000地號</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>558507(超過五年）</t>
+  </si>
+  <si>
     <t>2180694(超過五年）</t>
   </si>
   <si>
@@ -256,31 +262,31 @@
     <t>臺北市北投區桃源段五小段50184000建號</t>
   </si>
   <si>
+    <t>臺北市中正區臨沂段二小段02095000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段二小段02073000建號</t>
+  </si>
+  <si>
+    <t>新北市三重區三重埔段同安厝小段03215000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>71分之1</t>
+  </si>
+  <si>
     <t>73年02月07日</t>
   </si>
   <si>
+    <t>100年12月08曰</t>
+  </si>
+  <si>
     <t>第一次登記</t>
   </si>
   <si>
     <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段02095000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段二小段02073000建號</t>
-  </si>
-  <si>
-    <t>新北市三重區三重埔段同安厝小段03215000建號</t>
-  </si>
-  <si>
-    <t>71分之1</t>
-  </si>
-  <si>
-    <t>100年12月08曰</t>
   </si>
   <si>
     <t>35000000(上地加建物）</t>
@@ -672,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,284 +736,284 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>403.21</v>
+        <v>269.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="2">
         <v>923</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>33.6008333333333</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>45.65</v>
+        <v>403.21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2">
         <v>923</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.80416666666667</v>
+        <v>33.6008333333333</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>85.95</v>
+        <v>45.65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2">
         <v>923</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>7.1625</v>
+        <v>3.80416666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>31.58</v>
+        <v>85.95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="2">
         <v>923</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>2.63166666666667</v>
+        <v>7.1625</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>507.84</v>
+        <v>31.58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2">
         <v>923</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>42.32</v>
+        <v>2.63166666666667</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>112.59</v>
+        <v>507.84</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
@@ -1016,634 +1022,634 @@
         <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="2">
         <v>923</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0217592592592593</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.449875</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>4473.63</v>
+        <v>112.59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="2">
         <v>923</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.006</v>
+        <v>0.0217592592592593</v>
       </c>
       <c r="Q8" s="2">
-        <v>26.84178</v>
+        <v>2.449875</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>32</v>
+        <v>4473.63</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="2">
         <v>923</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.0666666666666667</v>
+        <v>0.006</v>
       </c>
       <c r="Q9" s="2">
-        <v>2.13333333333333</v>
+        <v>26.84178</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1471</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="2">
         <v>923</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q10" s="2">
-        <v>98.0666666666667</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>574</v>
+        <v>1471</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" s="2">
         <v>923</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q11" s="2">
-        <v>38.2666666666667</v>
+        <v>98.0666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1221</v>
+        <v>574</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M12" s="2">
         <v>923</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q12" s="2">
-        <v>81.4</v>
+        <v>38.2666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>324</v>
+        <v>1221</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="2">
         <v>923</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0509259259259259</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q13" s="2">
-        <v>16.5</v>
+        <v>81.4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M14" s="2">
         <v>923</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0666666666666667</v>
+        <v>0.0509259259259259</v>
       </c>
       <c r="Q14" s="2">
-        <v>13.2</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>795</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M15" s="2">
         <v>923</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q15" s="2">
-        <v>53</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>8316.01</v>
+        <v>795</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M16" s="2">
         <v>923</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q16" s="2">
-        <v>554.400666666667</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>366</v>
+        <v>8316.01</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17" s="2">
         <v>923</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>0.0666666666666667</v>
       </c>
       <c r="Q17" s="2">
-        <v>24.4</v>
+        <v>554.400666666667</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>848</v>
+        <v>366</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="2">
         <v>923</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
-        <v>0.0509259259259259</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="Q18" s="2">
-        <v>43.1851851851852</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>536</v>
+        <v>848</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
@@ -1652,86 +1658,139 @@
         <v>54</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19" s="2">
         <v>923</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
-        <v>0.0354</v>
+        <v>0.0509259259259259</v>
       </c>
       <c r="Q19" s="2">
-        <v>18.9744</v>
+        <v>43.1851851851852</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>4898</v>
+        <v>536</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="2">
+        <v>923</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.0354</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>18.9744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4898</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="2">
-        <v>923</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" s="2">
+      <c r="I21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="2">
+        <v>923</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="2">
         <v>35</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P21" s="2">
         <v>0.00263</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q21" s="2">
         <v>12.88174</v>
       </c>
     </row>
@@ -1742,111 +1801,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2">
         <v>78.25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>923</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>923</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="2">
+        <v>41</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>923</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="2">
+        <v>42</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0140845070422535</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.103098591549296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="2">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="2">
+        <v>121.25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="2">
-        <v>7.32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>923</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>121.25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1864,55 +2084,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1922,30 +2156,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>20829093</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20829093</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
+++ b/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>35000000(上地加建物）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1883,7 +1886,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>77</v>
@@ -1936,7 +1939,7 @@
         <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>77</v>
@@ -1989,7 +1992,7 @@
         <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>77</v>
@@ -2042,7 +2045,7 @@
         <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>77</v>
@@ -2084,10 +2087,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>43</v>
@@ -2098,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -2112,10 +2115,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
@@ -2126,10 +2129,10 @@
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
@@ -2140,10 +2143,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
@@ -2164,22 +2167,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1">
         <v>20829093</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2187,22 +2190,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>20829093</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
+++ b/legislator/property/output/normal/高志鵬_2012-04-30_財產申報表_tmp2a741.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -295,15 +295,18 @@
     <t>building</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
     <t>優質理財變額萬能壽險乙型</t>
   </si>
   <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
     <t>安泰雙星報喜還本終身壽險</t>
   </si>
   <si>
@@ -313,6 +316,15 @@
     <t>美年發儲蓄型保單</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>貸款</t>
   </si>
   <si>
@@ -323,6 +335,9 @@
   </si>
   <si>
     <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2079,66 +2094,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2">
+        <v>923</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2">
+        <v>923</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2">
+        <v>923</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -2146,10 +2245,31 @@
         <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2">
+        <v>923</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2159,53 +2279,95 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20829093</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>20829093</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2">
+        <v>923</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
